--- a/movie/real_movies_sample.xlsx
+++ b/movie/real_movies_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\MovieAPIML\movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PycharmProjects\MovieAPIML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D772E721-422D-42B6-9E27-A09A28E02DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE044CF-DF24-4EF5-9A91-158D43AF6145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17088" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t>Title</t>
   </si>
@@ -91,15 +91,6 @@
     <t>Avengers: Endgame</t>
   </si>
   <si>
-    <t>The Lord of the Rings: The Fellowship of the Ring</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings: The Two Towers</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings: The Return of the King</t>
-  </si>
-  <si>
     <t>The Hobbit: An Unexpected Journey</t>
   </si>
   <si>
@@ -277,15 +268,6 @@
     <t>Surviving heroes attempt to undo Thanos's catastrophic snap and restore balance.</t>
   </si>
   <si>
-    <t>A hobbit begins a quest to destroy a powerful ring that corrupts all who wear it.</t>
-  </si>
-  <si>
-    <t>The fellowship is divided as they fight armies and protect Middle-earth from darkness.</t>
-  </si>
-  <si>
-    <t>The final battle for Middle-earth unfolds as Frodo nears Mount Doom.</t>
-  </si>
-  <si>
     <t>Bilbo Baggins joins dwarves to reclaim their homeland from a dragon.</t>
   </si>
   <si>
@@ -446,15 +428,6 @@
   </si>
   <si>
     <t>https://via.placeholder.com/400x600?text=Avengers%3A%20Endgame</t>
-  </si>
-  <si>
-    <t>https://via.placeholder.com/400x600?text=The%20Lord%20of%20the%20Rings%3A%20The%20Fellowship%20of%20the%20Ring</t>
-  </si>
-  <si>
-    <t>https://via.placeholder.com/400x600?text=The%20Lord%20of%20the%20Rings%3A%20The%20Two%20Towers</t>
-  </si>
-  <si>
-    <t>https://via.placeholder.com/400x600?text=The%20Lord%20of%20the%20Rings%3A%20The%20Return%20of%20the%20King</t>
   </si>
   <si>
     <t>https://via.placeholder.com/400x600?text=The%20Hobbit%3A%20An%20Unexpected%20Journey</t>
@@ -963,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="153" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,10 +958,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -996,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,10 +991,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,10 +1002,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1040,10 +1013,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1051,10 +1024,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1062,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1073,10 +1046,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,10 +1057,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,10 +1068,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,10 +1079,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1117,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1128,10 +1101,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1139,10 +1112,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1150,10 +1123,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1161,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,10 +1145,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1183,10 +1156,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1194,197 +1167,173 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1395,277 +1344,277 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1690,48 +1639,45 @@
     <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
